--- a/pred_ohlcv/54_21/2019-10-26 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 XVG ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-343192.7794952899</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-295560.7794952899</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>773985.5612998001</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>26534.56039980007</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>739632.5367998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>739632.5367998</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1148643.7780998</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1148643.7780998</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1148643.7780998</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1595976.3591998</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1732125.00978424</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1732125.00978424</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1729072.00978424</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1729072.00978424</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1833878.82458424</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1771868.82458424</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1700032.38218424</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1720032.38218424</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1750032.38218424</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1750032.38218424</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1750032.38218424</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1747799.28438424</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1747799.28438424</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1747799.28438424</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2049150.56490664</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2032142.56500664</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1731877.19670664</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>388517.6205066398</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>586990.6205066398</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>384084.4392066398</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>384094.4392066398</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>369443.4392066398</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>369443.4392066398</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>539438.9937066397</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>539438.9937066397</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>378986.2802066397</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>373986.2802066397</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>388637.2801066397</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>357137.2801066397</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>521238.6064066397</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>520248.6064066397</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1517440.24740664</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1517440.24740664</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1843945.24740664</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1773851.78950664</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1768958.48440664</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1774047.169906639</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1774047.169906639</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1524116.84530664</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1509936.84530664</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 XVG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 XVG ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-343192.7794952899</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-295560.7794952899</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>26534.56039980007</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>739632.5367998</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>739632.5367998</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1148643.7780998</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>1148643.7780998</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1148643.7780998</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1595976.3591998</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1732125.00978424</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1732125.00978424</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1729072.00978424</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1729072.00978424</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1833878.82458424</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>1771868.82458424</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>1700032.38218424</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>1720032.38218424</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>1750032.38218424</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1750032.38218424</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1750032.38218424</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1747799.28438424</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>1747799.28438424</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2048850.56490664</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2032142.56500664</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1731877.19670664</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>586990.6205066398</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>576965.3142066398</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>384084.4392066398</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>384094.4392066398</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>369443.4392066398</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>369443.4392066398</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>539438.9937066397</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>539438.9937066397</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>378986.2802066397</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>373986.2802066397</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>388637.2801066397</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>357137.2801066397</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>521238.6064066397</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>520248.6064066397</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1517440.24740664</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1517440.24740664</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>1843935.24740664</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>1843945.24740664</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>1773851.78950664</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1768958.48440664</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1768968.48440664</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1768827.169906639</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1774047.169906639</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1774047.169906639</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1524116.84530664</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
